--- a/utils/config/ReferenceLists/Mediums.xlsx
+++ b/utils/config/ReferenceLists/Mediums.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/sahil_bhandari_gov_bc_ca/Documents/teamdocs/GitHub/aqs-api/utils/config/ReferenceLists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B7213A5-C065-464A-B8CD-86C2EEFBFB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{8B7213A5-C065-464A-B8CD-86C2EEFBFB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{219B6472-2306-4753-ABDD-E562114F888C}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="2820" windowWidth="14400" windowHeight="7520" xr2:uid="{6E8FB26B-ED95-4CC0-8321-151BCE4F97BB}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E8FB26B-ED95-4CC0-8321-151BCE4F97BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Mediums" sheetId="1" r:id="rId1"/>
@@ -1050,9 +1050,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF15217-9FB7-4636-898E-29D15D1551F2}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
